--- a/console/Elastic-Compute/Virtual-Machine/components/disk/diskShellOut.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/disk/diskShellOut.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>premium_hdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,23 +42,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This type has been sold out in current region</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sell_out_tips_one</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This type in current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sell_out_tips_two</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sold out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -101,27 +89,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>该类型在当</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>已售罄</t>
-    </r>
+    <t>该类型在xxxy已售罄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This type has been sold out in current region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This type has been sold out in xxx.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,9 +153,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,7 +469,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -514,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -525,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -536,35 +518,35 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
